--- a/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
+++ b/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="0" windowWidth="25560" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="25560" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>Mean</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>ISO 8655, 10-100 uL</t>
+  </si>
+  <si>
+    <t>ISO 8655, 30-300 uL</t>
   </si>
 </sst>
 </file>
@@ -133,8 +136,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -148,11 +179,39 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -495,9 +554,10 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +573,23 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -533,8 +608,28 @@
       <c r="G2" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <f>100*(L2/K2)</f>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1.5</v>
+      </c>
+      <c r="O2">
+        <f>100*(N2/K2)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -556,8 +651,11 @@
       <c r="G3" s="1">
         <v>0.57754010246640997</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -576,14 +674,32 @@
       <c r="G4" s="3">
         <v>1.47792997404395</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>193.39879999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-6.6012000000000102</v>
+      </c>
+      <c r="M4" s="4">
+        <v>-3.3006000000000002</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2.8582988346413201</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1.47792997404395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -604,8 +720,28 @@
         <f>100*(F6/50)</f>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f>100*(L6/K6)</f>
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
+        <f>100*(N6/K6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -627,8 +763,11 @@
       <c r="G7" s="1">
         <v>1.4618046595940699</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -647,14 +786,32 @@
       <c r="G8" s="3">
         <v>2.5306263412211898</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>49.621180000000003</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-0.37881999999999699</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-0.75763999999999498</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.2557266519047801</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2.5306263412211898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -674,8 +831,28 @@
       <c r="G10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <f>100*(L10/K10)</f>
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>1.5</v>
+      </c>
+      <c r="O10">
+        <f>100*(N10/K10)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -697,8 +874,11 @@
       <c r="G11" s="2">
         <v>0.81093871376506099</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -717,14 +897,32 @@
       <c r="G12" s="2">
         <v>2.0090010935765901</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>18.704139999999999</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-1.29586</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-6.4792999999999896</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.375766377144097</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2.0090010935765901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -743,8 +941,28 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f>100*(L14/K14)</f>
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
+      </c>
+      <c r="O14">
+        <f>100*(N14/K14)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -766,8 +984,11 @@
       <c r="G15" s="1">
         <v>3.39497827001831</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -784,6 +1005,24 @@
         <v>0.72616680149948998</v>
       </c>
       <c r="G16" s="3">
+        <v>6.0757375179761199</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1">
+        <v>11.951912</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.9519120000000001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>19.519120000000001</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.72616680149948998</v>
+      </c>
+      <c r="O16" s="2">
         <v>6.0757375179761199</v>
       </c>
     </row>

--- a/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
+++ b/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="0" windowWidth="25560" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="0" windowWidth="25560" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>Mean</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>ISO 8655, 10-100 uL</t>
+  </si>
+  <si>
+    <t>1000 uL</t>
+  </si>
+  <si>
+    <t>500 uL</t>
+  </si>
+  <si>
+    <t>200 uL 3mL</t>
+  </si>
+  <si>
+    <t>ISO 8655, 200-1000 uL</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -133,26 +148,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -516,45 +589,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
       </c>
       <c r="D2" s="1">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>0.08</v>
+        <f>100*(D2/1000)</f>
+        <v>0.8</v>
       </c>
       <c r="F2" s="1">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
+        <f>100*(F2/1000)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>198.230424</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-1.769576</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-0.88478800000000002</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.1448601938892</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.57754010246640997</v>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -562,70 +637,64 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>193.39879999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-6.6012000000000102</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-3.3006000000000002</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.8582988346413201</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.47792997404395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>949.286968</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-50.713031999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-5.0713032</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.60038093935105596</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.3245463130708002E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
+        <f>100*(D6/500)</f>
         <v>1.6</v>
       </c>
-      <c r="E6" s="1">
-        <f>100*(D6/50)</f>
-        <v>3.2</v>
-      </c>
       <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <f>100*(F6/500)</f>
         <v>0.6</v>
-      </c>
-      <c r="G6" s="1">
-        <f>100*(F6/50)</f>
-        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>48.885060000000003</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-1.11494</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-2.2298799999999899</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.71460408492535499</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.4618046595940699</v>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -633,138 +702,127 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>49.621180000000003</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-0.37881999999999699</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.75763999999999498</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.2557266519047801</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.5306263412211898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>475.98857600000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-24.011424000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-4.8022847999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.7489960823786497</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.9977121976933</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
       </c>
       <c r="D10" s="1">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
-        <f>100*(D10/20)</f>
-        <v>8</v>
+        <f>100*(D10/200)</f>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <f>100*(F10/200)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>20.162996</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.162996</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.81497999999999804</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.16350954041890101</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.81093871376506099</v>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
-        <v>18.704139999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-1.29586</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-6.4792999999999896</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.375766377144097</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2.0090010935765901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C12" s="7">
+        <v>186.55288400000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-13.447115999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-6.7235579999999997</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.3134573726893299</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.70406704229205797</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="E14" s="1">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="F14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="1">
         <v>0.3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>9.8773920000000004</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-0.12260799999999999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-1.2260800000000001</v>
+        <v>198.230424</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1.769576</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.88478800000000002</v>
       </c>
       <c r="F15" s="1">
-        <v>0.33533531204452699</v>
+        <v>1.1448601938892</v>
       </c>
       <c r="G15" s="1">
-        <v>3.39497827001831</v>
+        <v>0.57754010246640997</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -772,64 +830,70 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>11.951912</v>
+        <v>193.39879999999999</v>
       </c>
       <c r="D16" s="3">
-        <v>1.9519120000000001</v>
+        <v>-6.6012000000000102</v>
       </c>
       <c r="E16" s="3">
-        <v>19.519120000000001</v>
+        <v>-3.3006000000000002</v>
       </c>
       <c r="F16" s="3">
-        <v>0.72616680149948998</v>
+        <v>2.8582988346413201</v>
       </c>
       <c r="G16" s="3">
-        <v>6.0757375179761199</v>
-      </c>
+        <v>1.47792997404395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
         <v>1.6</v>
       </c>
       <c r="E18" s="1">
-        <f>100*(D18/10)</f>
-        <v>16</v>
+        <f>100*(D18/50)</f>
+        <v>3.2</v>
       </c>
       <c r="F18" s="1">
         <v>0.6</v>
       </c>
       <c r="G18" s="1">
-        <f>100*(F18/10)</f>
-        <v>6</v>
+        <f>100*(F18/50)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1">
-        <v>9.8773920000000004</v>
+        <v>48.885060000000003</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.12260799999999999</v>
+        <v>-1.11494</v>
       </c>
       <c r="E19" s="2">
-        <v>-1.2260800000000001</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.33533531204452699</v>
-      </c>
-      <c r="G19" s="5">
-        <v>3.39497827001831</v>
+        <v>-2.2298799999999899</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.71460408492535499</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.4618046595940699</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -837,18 +901,222 @@
         <v>6</v>
       </c>
       <c r="C20" s="1">
+        <v>49.621180000000003</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-0.37881999999999699</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-0.75763999999999498</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.2557266519047801</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2.5306263412211898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E22" s="1">
+        <f>100*(D22/20)</f>
+        <v>8</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20.162996</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.162996</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.81497999999999804</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.16350954041890101</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.81093871376506099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18.704139999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-1.29586</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-6.4792999999999896</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.375766377144097</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2.0090010935765901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.8773920000000004</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-0.12260799999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1.2260800000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.33533531204452699</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.39497827001831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
         <v>11.951912</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D28" s="3">
         <v>1.9519120000000001</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E28" s="3">
         <v>19.519120000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F28" s="3">
         <v>0.72616680149948998</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G28" s="3">
+        <v>6.0757375179761199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E30" s="1">
+        <f>100*(D30/10)</f>
+        <v>16</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G30" s="1">
+        <f>100*(F30/10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9.8773920000000004</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-0.12260799999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1.2260800000000001</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.33533531204452699</v>
+      </c>
+      <c r="G31" s="5">
+        <v>3.39497827001831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>11.951912</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.9519120000000001</v>
+      </c>
+      <c r="E32" s="4">
+        <v>19.519120000000001</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.72616680149948998</v>
+      </c>
+      <c r="G32" s="4">
         <v>6.0757375179761199</v>
       </c>
     </row>

--- a/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
+++ b/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="0" windowWidth="25560" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="25980" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
   <si>
     <t>Mean</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>ISO 8655, 30-300 uL</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -568,9 +571,10 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -609,7 +613,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -632,7 +636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -652,7 +656,7 @@
         <v>6.3245463130708002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -674,7 +678,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -697,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -717,7 +721,7 @@
         <v>0.9977121976933</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -739,7 +743,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -762,7 +766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -782,7 +786,24 @@
         <v>0.70406704229205797</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="13" spans="1:15">
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -801,8 +822,28 @@
       <c r="G14" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>200</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f>100*(L14/K14)</f>
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
+      </c>
+      <c r="O14">
+        <f>100*(N14/K14)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -824,8 +865,11 @@
       <c r="G15" s="1">
         <v>0.57754010246640997</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -844,14 +888,32 @@
       <c r="G16" s="3">
         <v>1.47792997404395</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1">
+        <v>193.39879999999999</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-6.6012000000000102</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-3.3006000000000002</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2.8582988346413201</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1.47792997404395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -872,8 +934,28 @@
         <f>100*(F18/50)</f>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <f>100*(L18/K18)</f>
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>1.5</v>
+      </c>
+      <c r="O18">
+        <f>100*(N18/K18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -895,8 +977,11 @@
       <c r="G19" s="1">
         <v>1.4618046595940699</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -915,14 +1000,32 @@
       <c r="G20" s="3">
         <v>2.5306263412211898</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1">
+        <v>49.621180000000003</v>
+      </c>
+      <c r="L20" s="2">
+        <v>-0.37881999999999699</v>
+      </c>
+      <c r="M20" s="2">
+        <v>-0.75763999999999498</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1.2557266519047801</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2.5306263412211898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:15">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -942,8 +1045,28 @@
       <c r="G22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <f>100*(L22/K22)</f>
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>1.5</v>
+      </c>
+      <c r="O22">
+        <f>100*(N22/K22)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -965,8 +1088,11 @@
       <c r="G23" s="2">
         <v>0.81093871376506099</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -985,14 +1111,32 @@
       <c r="G24" s="2">
         <v>2.0090010935765901</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1">
+        <v>18.704139999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-1.29586</v>
+      </c>
+      <c r="M24" s="2">
+        <v>-6.4792999999999896</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.375766377144097</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2.0090010935765901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:15">
       <c r="B26" t="s">
         <v>13</v>
       </c>
@@ -1011,8 +1155,28 @@
       <c r="G26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <f>100*(L26/K26)</f>
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>1.5</v>
+      </c>
+      <c r="O26">
+        <f>100*(N26/K26)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1198,11 @@
       <c r="G27" s="1">
         <v>3.39497827001831</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1221,26 @@
       <c r="G28" s="3">
         <v>6.0757375179761199</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="1">
+        <v>11.951912</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.9519120000000001</v>
+      </c>
+      <c r="M28" s="2">
+        <v>19.519120000000001</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.72616680149948998</v>
+      </c>
+      <c r="O28" s="2">
+        <v>6.0757375179761199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="B30" t="s">
         <v>11</v>
       </c>
@@ -1077,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1100,7 +1285,7 @@
         <v>3.39497827001831</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:15">
       <c r="B32" t="s">
         <v>6</v>
       </c>

--- a/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
+++ b/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="25980" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26660" windowHeight="12800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t>Mean</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>ISO 8655, 30-300 uL</t>
+  </si>
+  <si>
+    <t>300 uL</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,8 +186,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -197,8 +212,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -214,6 +230,12 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -229,6 +251,12 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,7 +589,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -721,6 +749,23 @@
         <v>0.9977121976933</v>
       </c>
     </row>
+    <row r="9" spans="1:15">
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>17</v>
@@ -742,6 +787,26 @@
         <f>100*(F10/200)</f>
         <v>1.5</v>
       </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <f>100*(L10/K10)</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O10" s="1">
+        <f>100*(N10/K10)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -765,6 +830,13 @@
       <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="I11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" t="s">
@@ -785,22 +857,23 @@
       <c r="G12" s="1">
         <v>0.70406704229205797</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="K13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" t="s">
-        <v>4</v>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>286.906116</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-13.093883999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-4.3646279999999997</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.419199186945792</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.146110230339527</v>
       </c>
     </row>
     <row r="14" spans="1:15">

--- a/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
+++ b/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26660" windowHeight="12800" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="26660" windowHeight="12800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
   <si>
     <t>Mean</t>
   </si>
@@ -72,9 +72,6 @@
     <t>200 uL 3mL</t>
   </si>
   <si>
-    <t>ISO 8655, 200-1000 uL</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -82,13 +79,19 @@
   </si>
   <si>
     <t>300 uL</t>
+  </si>
+  <si>
+    <t>100 uL 3mL</t>
+  </si>
+  <si>
+    <t>ISO 8655, 100-1000 uL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +139,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +164,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -198,8 +208,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -213,8 +231,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -236,6 +256,10 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -257,6 +281,10 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -621,7 +649,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -649,19 +677,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -686,7 +714,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>500</v>
@@ -714,19 +742,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -749,26 +777,9 @@
         <v>0.9977121976933</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="K9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="10" spans="1:15">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>200</v>
@@ -787,26 +798,10 @@
         <f>100*(F10/200)</f>
         <v>1.5</v>
       </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10">
-        <v>300</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4</v>
-      </c>
-      <c r="M10" s="1">
-        <f>100*(L10/K10)</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="O10" s="1">
-        <f>100*(N10/K10)</f>
-        <v>0.5</v>
-      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -816,23 +811,21 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I11" s="8"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -857,89 +850,55 @@
       <c r="G12" s="1">
         <v>0.70406704229205797</v>
       </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="1">
-        <v>286.906116</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-13.093883999999999</v>
-      </c>
-      <c r="M12" s="1">
-        <v>-4.3646279999999997</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.419199186945792</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.146110230339527</v>
-      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
       </c>
       <c r="D14" s="1">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>0.08</v>
+        <f>100*(D14/100)</f>
+        <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14">
-        <v>200</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <f>100*(L14/K14)</f>
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>1.5</v>
-      </c>
-      <c r="O14">
-        <f>100*(N14/K14)</f>
-        <v>0.75</v>
+        <f>100*(F14/100)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
-        <v>198.230424</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-1.769576</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-0.88478800000000002</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.1448601938892</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.57754010246640997</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -947,111 +906,79 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>193.39879999999999</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-6.6012000000000102</v>
-      </c>
-      <c r="E16" s="3">
-        <v>-3.3006000000000002</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2.8582988346413201</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.47792997404395</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="1">
-        <v>193.39879999999999</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-6.6012000000000102</v>
-      </c>
-      <c r="M16" s="4">
-        <v>-3.3006000000000002</v>
-      </c>
-      <c r="N16" s="4">
-        <v>2.8582988346413201</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1.47792997404395</v>
-      </c>
+        <v>94.015907999999996</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-5.9840920000000004</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-5.9840920000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4.8112501548982003</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.1174851759110798</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15">
+      <c r="C17" s="7"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>1.6</v>
       </c>
       <c r="E18" s="1">
-        <f>100*(D18/50)</f>
-        <v>3.2</v>
+        <v>0.08</v>
       </c>
       <c r="F18" s="1">
         <v>0.6</v>
       </c>
       <c r="G18" s="1">
-        <f>100*(F18/50)</f>
-        <v>1.2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18">
-        <v>50</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <f>100*(L18/K18)</f>
-        <v>8</v>
-      </c>
-      <c r="N18">
-        <v>1.5</v>
-      </c>
-      <c r="O18">
-        <f>100*(N18/K18)</f>
-        <v>3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1">
-        <v>48.885060000000003</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-1.11494</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-2.2298799999999899</v>
+        <v>198.230424</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-1.769576</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-0.88478800000000002</v>
       </c>
       <c r="F19" s="1">
-        <v>0.71460408492535499</v>
+        <v>1.1448601938892</v>
       </c>
       <c r="G19" s="1">
-        <v>1.4618046595940699</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
+        <v>0.57754010246640997</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1059,37 +986,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>49.621180000000003</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-0.37881999999999699</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-0.75763999999999498</v>
+        <v>193.39879999999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-6.6012000000000102</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3.3006000000000002</v>
       </c>
       <c r="F20" s="3">
-        <v>1.2557266519047801</v>
+        <v>2.8582988346413201</v>
       </c>
       <c r="G20" s="3">
-        <v>2.5306263412211898</v>
-      </c>
-      <c r="J20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="1">
-        <v>49.621180000000003</v>
-      </c>
-      <c r="L20" s="2">
-        <v>-0.37881999999999699</v>
-      </c>
-      <c r="M20" s="2">
-        <v>-0.75763999999999498</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1.2557266519047801</v>
-      </c>
-      <c r="O20" s="2">
-        <v>2.5306263412211898</v>
+        <v>1.47792997404395</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1097,72 +1006,55 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1">
         <v>1.6</v>
       </c>
       <c r="E22" s="1">
-        <f>100*(D22/20)</f>
-        <v>8</v>
+        <f>100*(D22/50)</f>
+        <v>3.2</v>
       </c>
       <c r="F22" s="1">
         <v>0.6</v>
       </c>
       <c r="G22" s="1">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22">
-        <v>20</v>
-      </c>
-      <c r="L22">
-        <v>4</v>
-      </c>
-      <c r="M22">
-        <f>100*(L22/K22)</f>
-        <v>20</v>
-      </c>
-      <c r="N22">
-        <v>1.5</v>
-      </c>
-      <c r="O22">
-        <f>100*(N22/K22)</f>
-        <v>7.5</v>
+        <f>100*(F22/50)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1">
-        <v>20.162996</v>
+        <v>48.885060000000003</v>
       </c>
       <c r="D23" s="2">
-        <v>0.162996</v>
+        <v>-1.11494</v>
       </c>
       <c r="E23" s="2">
-        <v>0.81497999999999804</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.16350954041890101</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.81093871376506099</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
+        <v>-2.2298799999999899</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.71460408492535499</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.4618046595940699</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1170,37 +1062,19 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>18.704139999999999</v>
+        <v>49.621180000000003</v>
       </c>
       <c r="D24" s="2">
-        <v>-1.29586</v>
+        <v>-0.37881999999999699</v>
       </c>
       <c r="E24" s="2">
-        <v>-6.4792999999999896</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.375766377144097</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2.0090010935765901</v>
-      </c>
-      <c r="J24" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="1">
-        <v>18.704139999999999</v>
-      </c>
-      <c r="L24" s="2">
-        <v>-1.29586</v>
-      </c>
-      <c r="M24" s="2">
-        <v>-6.4792999999999896</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.375766377144097</v>
-      </c>
-      <c r="O24" s="2">
-        <v>2.0090010935765901</v>
+        <v>-0.75763999999999498</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.2557266519047801</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.5306263412211898</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1208,71 +1082,54 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15">
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="E26" s="1">
+        <f>100*(D26/20)</f>
         <v>8</v>
       </c>
       <c r="F26" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <f>100*(L26/K26)</f>
-        <v>40</v>
-      </c>
-      <c r="N26">
-        <v>1.5</v>
-      </c>
-      <c r="O26">
-        <f>100*(N26/K26)</f>
-        <v>15</v>
-      </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1">
-        <v>9.8773920000000004</v>
+        <v>20.162996</v>
       </c>
       <c r="D27" s="2">
-        <v>-0.12260799999999999</v>
+        <v>0.162996</v>
       </c>
       <c r="E27" s="2">
-        <v>-1.2260800000000001</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.33533531204452699</v>
-      </c>
-      <c r="G27" s="1">
-        <v>3.39497827001831</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
+        <v>0.81497999999999804</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.16350954041890101</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.81093871376506099</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1280,64 +1137,55 @@
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>11.951912</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1.9519120000000001</v>
-      </c>
-      <c r="E28" s="3">
-        <v>19.519120000000001</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.72616680149948998</v>
-      </c>
-      <c r="G28" s="3">
-        <v>6.0757375179761199</v>
-      </c>
-      <c r="J28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="1">
-        <v>11.951912</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1.9519120000000001</v>
-      </c>
-      <c r="M28" s="2">
-        <v>19.519120000000001</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.72616680149948998</v>
-      </c>
-      <c r="O28" s="2">
-        <v>6.0757375179761199</v>
-      </c>
+        <v>18.704139999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1.29586</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-6.4792999999999896</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.375766377144097</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.0090010935765901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15">
       <c r="B30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="1">
-        <f>100*(D30/10)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G30" s="1">
-        <f>100*(F30/10)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1351,10 +1199,10 @@
       <c r="E31" s="2">
         <v>-1.2260800000000001</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="1">
         <v>0.33533531204452699</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="1">
         <v>3.39497827001831</v>
       </c>
     </row>
@@ -1365,17 +1213,402 @@
       <c r="C32" s="1">
         <v>11.951912</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1.9519120000000001</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>19.519120000000001</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>0.72616680149948998</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>6.0757375179761199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E34" s="1">
+        <f>100*(D34/10)</f>
+        <v>16</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G34" s="1">
+        <f>100*(F34/10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.8773920000000004</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-0.12260799999999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-1.2260800000000001</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.33533531204452699</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3.39497827001831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>11.951912</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.9519120000000001</v>
+      </c>
+      <c r="E36" s="4">
+        <v>19.519120000000001</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.72616680149948998</v>
+      </c>
+      <c r="G36" s="4">
+        <v>6.0757375179761199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="9">
+        <v>300</v>
+      </c>
+      <c r="D41" s="10">
+        <v>4</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1.33</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="10">
+        <v>286.91000000000003</v>
+      </c>
+      <c r="D43" s="10">
+        <v>-13.09</v>
+      </c>
+      <c r="E43" s="10">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="9">
+        <v>200</v>
+      </c>
+      <c r="D45" s="9">
+        <v>4</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="10">
+        <v>193.4</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-6.6</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="9">
+        <v>50</v>
+      </c>
+      <c r="D49" s="9">
+        <v>4</v>
+      </c>
+      <c r="E49" s="9">
+        <v>8</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G49" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="10">
+        <v>49.62</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-0.38</v>
+      </c>
+      <c r="E51" s="2">
+        <v>-0.76</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="9">
+        <v>20</v>
+      </c>
+      <c r="D53" s="9">
+        <v>4</v>
+      </c>
+      <c r="E53" s="9">
+        <v>20</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G53" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="10">
+        <v>18.7</v>
+      </c>
+      <c r="D55" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>-6.48</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="9">
+        <v>10</v>
+      </c>
+      <c r="D57" s="9">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9">
+        <v>40</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G57" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="10">
+        <v>11.95</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="E59" s="2">
+        <v>19.52</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="G59" s="2">
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
+++ b/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="26660" windowHeight="12800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>Mean</t>
   </si>
@@ -147,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,7 +170,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -216,8 +222,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -233,8 +243,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -260,6 +274,8 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -285,6 +301,8 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -648,23 +666,23 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>1000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="12">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="12">
         <f>100*(D2/1000)</f>
         <v>0.8</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="12">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="12">
         <f>100*(F2/1000)</f>
         <v>0.3</v>
       </c>
@@ -713,23 +731,23 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>500</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="12">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="12">
         <f>100*(D6/500)</f>
         <v>1.6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="12">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="12">
         <f>100*(F6/500)</f>
         <v>0.6</v>
       </c>
@@ -778,23 +796,23 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>200</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="12">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="12">
         <f>100*(D10/200)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="12">
         <v>3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="12">
         <f>100*(F10/200)</f>
         <v>1.5</v>
       </c>
@@ -856,24 +874,41 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
+    <row r="13" spans="1:15">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="14" spans="1:15">
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>100</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="12">
         <v>8</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="12">
         <f>100*(D14/100)</f>
         <v>8</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="12">
         <v>3</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="12">
         <f>100*(F14/100)</f>
         <v>3</v>
       </c>
@@ -927,11 +962,21 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -939,22 +984,22 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="12">
         <v>1.6</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="12">
         <v>0.08</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="12">
         <v>0.6</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -1013,23 +1058,23 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="B22" t="s">
+      <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="12">
         <v>1.6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="12">
         <f>100*(D22/50)</f>
         <v>3.2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="12">
         <v>0.6</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="12">
         <f>100*(F22/50)</f>
         <v>1.2</v>
       </c>
@@ -1089,23 +1134,23 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="B26" t="s">
+      <c r="B26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="12">
         <v>1.6</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="12">
         <f>100*(D26/20)</f>
         <v>8</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="12">
         <v>0.6</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1164,22 +1209,22 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="B30" t="s">
+      <c r="B30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="12">
         <v>0.8</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="12">
         <v>8</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="12">
         <v>0.3</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1227,23 +1272,23 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="B34" t="s">
+      <c r="B34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="12">
         <v>1.6</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="12">
         <f>100*(D34/10)</f>
         <v>16</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="12">
         <v>0.6</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="12">
         <f>100*(F34/10)</f>
         <v>6</v>
       </c>
@@ -1312,22 +1357,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="9"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="13">
         <v>300</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="14">
         <v>4</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="14">
         <v>1.33</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="14">
         <v>1.5</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="14">
         <v>0.5</v>
       </c>
     </row>
@@ -1374,22 +1419,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="13">
         <v>200</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="13">
         <v>4</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="13">
         <v>2</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="13">
         <v>1.5</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="13">
         <v>0.75</v>
       </c>
     </row>
@@ -1436,22 +1481,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="9"/>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="13">
         <v>50</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="13">
         <v>4</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="13">
         <v>8</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="13">
         <v>1.5</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="13">
         <v>3</v>
       </c>
     </row>
@@ -1498,22 +1543,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="9"/>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="13">
         <v>20</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="13">
         <v>4</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="13">
         <v>20</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="13">
         <v>1.5</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="13">
         <v>7.5</v>
       </c>
     </row>
@@ -1560,22 +1605,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9"/>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="13">
         <v>10</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="13">
         <v>4</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="13">
         <v>40</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="13">
         <v>1.5</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="13">
         <v>15</v>
       </c>
     </row>

--- a/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
+++ b/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="25560" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>Mean</t>
   </si>
@@ -63,14 +63,35 @@
     <t>ISO 8655, 10-100 uL</t>
   </si>
   <si>
+    <t>1000 uL</t>
+  </si>
+  <si>
+    <t>500 uL</t>
+  </si>
+  <si>
+    <t>200 uL 3mL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>ISO 8655, 30-300 uL</t>
+  </si>
+  <si>
+    <t>300 uL</t>
+  </si>
+  <si>
+    <t>100 uL 3mL</t>
+  </si>
+  <si>
+    <t>ISO 8655, 100-1000 uL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,13 +139,26 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,7 +170,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -170,16 +204,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -196,6 +265,17 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -212,6 +292,17 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -554,7 +645,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -573,86 +664,50 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12">
+        <f>100*(D2/1000)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="12">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G2" s="12">
+        <f>100*(F2/1000)</f>
         <v>0.3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2">
-        <v>200</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <f>100*(L2/K2)</f>
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>1.5</v>
-      </c>
-      <c r="O2">
-        <f>100*(N2/K2)</f>
-        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>198.230424</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-1.769576</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-0.88478800000000002</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.1448601938892</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.57754010246640997</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -660,111 +715,64 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>193.39879999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-6.6012000000000102</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-3.3006000000000002</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.8582988346413201</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.47792997404395</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1">
-        <v>193.39879999999999</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-6.6012000000000102</v>
-      </c>
-      <c r="M4" s="4">
-        <v>-3.3006000000000002</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2.8582988346413201</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1.47792997404395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>949.286968</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-50.713031999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-5.0713032</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.60038093935105596</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.3245463130708002E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11">
+        <v>500</v>
+      </c>
+      <c r="D6" s="12">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="12">
+        <f>100*(D6/500)</f>
         <v>1.6</v>
       </c>
-      <c r="E6" s="1">
-        <f>100*(D6/50)</f>
-        <v>3.2</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12">
+        <f>100*(F6/500)</f>
         <v>0.6</v>
-      </c>
-      <c r="G6" s="1">
-        <f>100*(F6/50)</f>
-        <v>1.2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <f>100*(L6/K6)</f>
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <f>100*(N6/K6)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>48.885060000000003</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-1.11494</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-2.2298799999999899</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.71460408492535499</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.4618046595940699</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -772,220 +780,160 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>49.621180000000003</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-0.37881999999999699</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.75763999999999498</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.2557266519047801</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.5306263412211898</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1">
-        <v>49.621180000000003</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-0.37881999999999699</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-0.75763999999999498</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1.2557266519047801</v>
-      </c>
-      <c r="O8" s="2">
-        <v>2.5306263412211898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>475.98857600000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-24.011424000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-4.8022847999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.7489960823786497</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.9977121976933</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E10" s="1">
-        <f>100*(D10/20)</f>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11">
+        <v>200</v>
+      </c>
+      <c r="D10" s="12">
         <v>8</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="E10" s="12">
+        <f>100*(D10/200)</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="12">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <f>100*(L10/K10)</f>
-        <v>20</v>
-      </c>
-      <c r="N10">
+      <c r="G10" s="12">
+        <f>100*(F10/200)</f>
         <v>1.5</v>
       </c>
-      <c r="O10">
-        <f>100*(N10/K10)</f>
-        <v>7.5</v>
-      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>20.162996</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.162996</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.81497999999999804</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.16350954041890101</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.81093871376506099</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
-        <v>18.704139999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-1.29586</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-6.4792999999999896</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.375766377144097</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2.0090010935765901</v>
-      </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="1">
-        <v>18.704139999999999</v>
-      </c>
-      <c r="L12" s="2">
-        <v>-1.29586</v>
-      </c>
-      <c r="M12" s="2">
-        <v>-6.4792999999999896</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.375766377144097</v>
-      </c>
-      <c r="O12" s="2">
-        <v>2.0090010935765901</v>
-      </c>
+      <c r="C12" s="7">
+        <v>186.55288400000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-13.447115999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-6.7235579999999997</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.3134573726893299</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.70406704229205797</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12">
         <v>8</v>
       </c>
-      <c r="F14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E14" s="12">
+        <f>100*(D14/100)</f>
+        <v>8</v>
+      </c>
+      <c r="F14" s="12">
         <v>3</v>
       </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <f>100*(L14/K14)</f>
-        <v>40</v>
-      </c>
-      <c r="N14">
-        <v>1.5</v>
-      </c>
-      <c r="O14">
-        <f>100*(N14/K14)</f>
-        <v>15</v>
+      <c r="G14" s="12">
+        <f>100*(F14/100)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
-        <v>9.8773920000000004</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-0.12260799999999999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-1.2260800000000001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.33533531204452699</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3.39497827001831</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -993,102 +941,719 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>11.951912</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.9519120000000001</v>
-      </c>
-      <c r="E16" s="3">
-        <v>19.519120000000001</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.72616680149948998</v>
-      </c>
-      <c r="G16" s="3">
-        <v>6.0757375179761199</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="1">
-        <v>11.951912</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1.9519120000000001</v>
-      </c>
-      <c r="M16" s="2">
-        <v>19.519120000000001</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.72616680149948998</v>
-      </c>
-      <c r="O16" s="2">
-        <v>6.0757375179761199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" t="s">
+        <v>94.015907999999996</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-5.9840920000000004</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-5.9840920000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4.8112501548982003</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.1174851759110798</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="12">
         <v>1.6</v>
       </c>
-      <c r="E18" s="1">
-        <f>100*(D18/10)</f>
-        <v>16</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F18" s="12">
         <v>0.6</v>
       </c>
-      <c r="G18" s="1">
-        <f>100*(F18/10)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1">
-        <v>9.8773920000000004</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-0.12260799999999999</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-1.2260800000000001</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.33533531204452699</v>
-      </c>
-      <c r="G19" s="5">
-        <v>3.39497827001831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>198.230424</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-1.769576</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-0.88478800000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.1448601938892</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.57754010246640997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1">
+        <v>193.39879999999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-6.6012000000000102</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3.3006000000000002</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.8582988346413201</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.47792997404395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="E22" s="12">
+        <f>100*(D22/50)</f>
+        <v>3.2</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="12">
+        <f>100*(F22/50)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>48.885060000000003</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-1.11494</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-2.2298799999999899</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.71460408492535499</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.4618046595940699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>49.621180000000003</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-0.37881999999999699</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-0.75763999999999498</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.2557266519047801</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.5306263412211898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="E26" s="12">
+        <f>100*(D26/20)</f>
+        <v>8</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20.162996</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.162996</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.81497999999999804</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.16350954041890101</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.81093871376506099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>18.704139999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1.29586</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-6.4792999999999896</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.375766377144097</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.0090010935765901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="12">
+        <v>8</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9.8773920000000004</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-0.12260799999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1.2260800000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.33533531204452699</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.39497827001831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
         <v>11.951912</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D32" s="3">
         <v>1.9519120000000001</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E32" s="3">
         <v>19.519120000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F32" s="3">
         <v>0.72616680149948998</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G32" s="3">
         <v>6.0757375179761199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="E34" s="12">
+        <f>100*(D34/10)</f>
+        <v>16</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G34" s="12">
+        <f>100*(F34/10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.8773920000000004</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-0.12260799999999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-1.2260800000000001</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.33533531204452699</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3.39497827001831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>11.951912</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.9519120000000001</v>
+      </c>
+      <c r="E36" s="4">
+        <v>19.519120000000001</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.72616680149948998</v>
+      </c>
+      <c r="G36" s="4">
+        <v>6.0757375179761199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="9"/>
+      <c r="B41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="13">
+        <v>300</v>
+      </c>
+      <c r="D41" s="14">
+        <v>4</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1.33</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="10">
+        <v>286.91000000000003</v>
+      </c>
+      <c r="D43" s="10">
+        <v>-13.09</v>
+      </c>
+      <c r="E43" s="10">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="9"/>
+      <c r="B45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="13">
+        <v>200</v>
+      </c>
+      <c r="D45" s="13">
+        <v>4</v>
+      </c>
+      <c r="E45" s="13">
+        <v>2</v>
+      </c>
+      <c r="F45" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="10">
+        <v>193.4</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-6.6</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="9"/>
+      <c r="B49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="13">
+        <v>50</v>
+      </c>
+      <c r="D49" s="13">
+        <v>4</v>
+      </c>
+      <c r="E49" s="13">
+        <v>8</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G49" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="10">
+        <v>49.62</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-0.38</v>
+      </c>
+      <c r="E51" s="2">
+        <v>-0.76</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="9"/>
+      <c r="B53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="13">
+        <v>20</v>
+      </c>
+      <c r="D53" s="13">
+        <v>4</v>
+      </c>
+      <c r="E53" s="13">
+        <v>20</v>
+      </c>
+      <c r="F53" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G53" s="13">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="10">
+        <v>18.7</v>
+      </c>
+      <c r="D55" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>-6.48</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="9"/>
+      <c r="B57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="13">
+        <v>10</v>
+      </c>
+      <c r="D57" s="13">
+        <v>4</v>
+      </c>
+      <c r="E57" s="13">
+        <v>40</v>
+      </c>
+      <c r="F57" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G57" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="10">
+        <v>11.95</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="E59" s="2">
+        <v>19.52</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="G59" s="2">
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
+++ b/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840" tabRatio="500"/>

--- a/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
+++ b/data/commerical-Vs-printed-comparison/final_data_comparison.xlsx
@@ -5,79 +5,84 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="250" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Systematic Error</t>
-  </si>
-  <si>
-    <t>% Sys. err.</t>
-  </si>
-  <si>
-    <t>Random Error</t>
-  </si>
-  <si>
-    <t>% Rand. err.</t>
-  </si>
-  <si>
-    <t>1000 uL</t>
-  </si>
-  <si>
-    <t>ISO 8655, 100-1000 uL</t>
-  </si>
-  <si>
-    <t>Commercial Pipette</t>
-  </si>
-  <si>
-    <t>Printed Pipette</t>
-  </si>
-  <si>
-    <t>Printed Pipette Scale</t>
-  </si>
-  <si>
-    <t>500 uL</t>
-  </si>
-  <si>
-    <t>200 uL</t>
-  </si>
-  <si>
-    <t>100 uL</t>
-  </si>
-  <si>
-    <t>300 uL</t>
-  </si>
-  <si>
-    <t>ISO 8655, 30-300 uL</t>
-  </si>
-  <si>
-    <t>50 uL</t>
-  </si>
-  <si>
-    <t>30 uL</t>
-  </si>
-  <si>
-    <t>20 uL*</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>10 uL*</t>
-  </si>
-  <si>
-    <t> </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systematic Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Sys. err.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Rand. err.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO 8655, 100-1000 uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial Pipette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printed Pipette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printed Pipette Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO 8655, 30-300 uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 uL*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 uL*</t>
   </si>
 </sst>
 </file>
@@ -85,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
@@ -182,12 +187,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,7 +240,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Bad" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Bad" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -303,1124 +312,1134 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.1666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="10.8333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.0740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="D2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <f aca="false">100*(D2/1000)</f>
         <v>0.8</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <f aca="false">100*(F2/1000)</f>
         <v>0.3</v>
       </c>
-      <c r="I2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>1002.976884</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>2.97688399999993</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>0.297688399999993</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>1.72313667478813</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.171802232162724</v>
       </c>
-      <c r="I3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>949.286968</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>-50.713032</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <v>-5.0713032</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>0.600380939351056</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>0.063245463130708</v>
       </c>
-      <c r="I4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>1003.56578</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>3.56578000000013</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>0.356578000000013</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>0.89001872639485</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="9" t="n">
         <v>0.0886856391610772</v>
       </c>
-      <c r="I5" s="0"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-      <c r="M5" s="0"/>
-      <c r="N5" s="0"/>
-      <c r="O5" s="0"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="D7" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <f aca="false">100*(D7/500)</f>
         <v>1.6</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <f aca="false">100*(F7/500)</f>
         <v>0.6</v>
       </c>
-      <c r="I7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>503.67338</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>3.67338000000001</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.734676000000002</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>0.493288286231639</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>0.0979381293153986</v>
       </c>
-      <c r="I8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>475.988576</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>-24.011424</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>-4.8022848</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>4.74899608237865</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>0.9977121976933</v>
       </c>
-      <c r="I9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="0"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="n">
         <v>503.619844</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="8" t="n">
         <v>3.619844</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <v>0.7239688</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="9" t="n">
         <v>1.64272131943717</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="9" t="n">
         <v>0.326182802168766</v>
       </c>
-      <c r="I10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="D12" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="n">
         <f aca="false">100*(D12/200)</f>
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <f aca="false">100*(F12/200)</f>
         <v>1.5</v>
       </c>
-      <c r="I12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>204.6079</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>4.6079</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>2.30395</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>0.152752523165198</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>0.0746562196108744</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="I13" s="10"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="n">
         <v>186.552884</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>-13.447116</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="7" t="n">
         <v>-6.723558</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>1.31345737268933</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="6" t="n">
         <v>0.704067042292058</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="n">
         <v>201.870872</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="8" t="n">
         <v>1.87087199999999</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="n">
         <v>0.935435999999996</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="9" t="n">
         <v>1.46769660806766</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="9" t="n">
         <v>0.727047242391494</v>
       </c>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="n">
+      <c r="D17" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <f aca="false">100*(D17/100)</f>
         <v>8</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="4" t="n">
         <f aca="false">100*(F17/100)</f>
         <v>3</v>
       </c>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="n">
         <v>104.29482</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>4.29481999999999</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>4.29481999999999</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>1.64620776331543</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>1.57841756984233</v>
       </c>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="n">
         <v>94.015908</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="6" t="n">
         <v>-5.984092</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="6" t="n">
         <v>-5.984092</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="7" t="n">
         <v>4.8112501548982</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="7" t="n">
         <v>5.11748517591108</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8" t="n">
         <v>100.995664</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="8" t="n">
         <v>0.995664000000019</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="8" t="n">
         <v>0.995664000000019</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="9" t="n">
         <v>1.05381845368798</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="9" t="n">
         <v>1.04342940275929</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>1.33</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="n">
         <v>301.193536</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="6" t="n">
         <v>1.19353599999999</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="6" t="n">
         <v>0.397845333333332</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>0.527762572880363</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="6" t="n">
         <v>0.17522373816162</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6" t="n">
         <v>286.91</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="7" t="n">
         <v>-13.09</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="7" t="n">
         <v>-4.36</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>0.42</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="6" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6" t="n">
         <v>299.105632</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="6" t="n">
         <v>-0.894368000000043</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="6" t="n">
         <v>-0.298122666666681</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="9" t="n">
         <v>0.477214137817994</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="9" t="n">
         <v>0.159547025118535</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="3" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="5" t="n">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="n">
         <v>200.064032</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="6" t="n">
         <v>0.0640320000000258</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="6" t="n">
         <v>0.0320160000000129</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="6" t="n">
         <v>0.457966519882542</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="6" t="n">
         <v>0.228909972124596</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6" t="n">
         <v>193.4</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="7" t="n">
         <v>-6.6</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="7" t="n">
         <v>-3.3</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="7" t="n">
         <v>2.86</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="7" t="n">
         <v>1.48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6" t="n">
         <v>200.565932</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="6" t="n">
         <v>0.565932000000032</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="6" t="n">
         <v>0.282966000000016</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="6" t="n">
         <v>0.860077515886407</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="6" t="n">
         <v>0.42882532806539</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2" t="n">
+      <c r="E34" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="n">
         <v>49.0189</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="6" t="n">
         <v>-0.981099999999998</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="6" t="n">
         <v>-1.9622</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="6" t="n">
         <v>0.09865765724632</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="6" t="n">
         <v>0.201264527042263</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6" t="n">
         <v>49.62</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36" s="6" t="n">
         <v>-0.38</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="6" t="n">
         <v>-0.76</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="6" t="n">
         <v>1.26</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="6" t="n">
         <v>2.53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6" t="n">
         <v>48.731144</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37" s="6" t="n">
         <v>-1.26885600000001</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="6" t="n">
         <v>-2.53771200000001</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="6" t="n">
         <v>1.10857265586579</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="6" t="n">
         <v>2.27487508987229</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="3" t="n">
         <v>13.3</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="3" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="n">
         <v>29.083432</v>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="D40" s="6" t="n">
         <v>-0.916568000000002</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40" s="6" t="n">
         <v>-3.05522666666667</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="6" t="n">
         <v>0.0901849950564575</v>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="G40" s="6" t="n">
         <v>0.310090621548576</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6" t="n">
         <v>29.223964</v>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="D41" s="6" t="n">
         <v>-0.776035999999998</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="6" t="n">
         <v>-2.58678666666666</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="6" t="n">
         <v>0.311341184768948</v>
       </c>
-      <c r="G41" s="5" t="n">
+      <c r="G41" s="6" t="n">
         <v>1.06536260710199</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6" t="n">
         <v>27.778492</v>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="D42" s="6" t="n">
         <v>-2.221508</v>
       </c>
-      <c r="E42" s="5" t="n">
+      <c r="E42" s="6" t="n">
         <v>-7.40502666666668</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="6" t="n">
         <v>1.37074189158037</v>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="G42" s="6" t="n">
         <v>4.93454393269573</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="3" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
+      <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" s="6" t="n">
         <v>18.7</v>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="D46" s="6" t="n">
         <v>-1.3</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E46" s="6" t="n">
         <v>-6.48</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="6" t="n">
         <v>0.38</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="G46" s="6" t="n">
         <v>2.01</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
+      <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" s="6" t="n">
         <v>17.941252</v>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="D47" s="6" t="n">
         <v>-2.058748</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47" s="6" t="n">
         <v>-10.29374</v>
       </c>
-      <c r="F47" s="6" t="n">
+      <c r="F47" s="7" t="n">
         <v>1.87022280312623</v>
       </c>
-      <c r="G47" s="6" t="n">
+      <c r="G47" s="7" t="n">
         <v>10.4241487892051</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
-      <c r="B48" s="0"/>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="3" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" s="6" t="n">
         <v>11.95</v>
       </c>
-      <c r="D51" s="5" t="n">
+      <c r="D51" s="6" t="n">
         <v>1.95</v>
       </c>
-      <c r="E51" s="5" t="n">
+      <c r="E51" s="6" t="n">
         <v>19.52</v>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="6" t="n">
         <v>0.73</v>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="G51" s="6" t="n">
         <v>6.08</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" s="6" t="n">
         <v>7.635572</v>
       </c>
-      <c r="D52" s="5" t="n">
+      <c r="D52" s="6" t="n">
         <v>-2.364428</v>
       </c>
-      <c r="E52" s="5" t="n">
+      <c r="E52" s="6" t="n">
         <v>-23.64428</v>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="6" t="n">
         <v>0.375410886008029</v>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="G52" s="6" t="n">
         <v>4.9166046238321</v>
       </c>
     </row>
